--- a/Output/Output Case buy water yo leader and the other process.xlsx
+++ b/Output/Output Case buy water yo leader and the other process.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Refrigeration air conditioning equipment" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="solu" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,47 +436,84 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Process</t>
+          <t xml:space="preserve">Iteracion </t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Total Cost</t>
+          <t>Precio Refrigeration air conditioning equipment</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Leader Supply</t>
+          <t>Precio Metal melting</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Water From 1 to 2</t>
+          <t>Cant_Agua_del_estado Refrigeration air conditioning equipment</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Water From 2 to 1</t>
+          <t>Cant_Agua_del_estado Metal melting</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>De Refrigeration air conditioning equipment Hacia Metal melting</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>De Metal melting Hacia Refrigeration air conditioning equipment</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>Refrigeration air conditioning equipment</t>
-        </is>
+      <c r="A2" t="n">
+        <v>0</v>
       </c>
       <c r="B2" t="n">
         <v>3545</v>
       </c>
       <c r="C2" t="n">
+        <v>26045</v>
+      </c>
+      <c r="D2" t="n">
         <v>1000</v>
       </c>
-      <c r="D2" t="n">
+      <c r="E2" t="n">
+        <v>10000</v>
+      </c>
+      <c r="F2" t="n">
         <v>0</v>
       </c>
-      <c r="E2" t="n">
-        <v>9000</v>
+      <c r="G2" t="n">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>12500</v>
+      </c>
+      <c r="C3" t="n">
+        <v>35000</v>
+      </c>
+      <c r="D3" t="n">
+        <v>10000</v>
+      </c>
+      <c r="E3" t="n">
+        <v>10000</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>5000</v>
       </c>
     </row>
   </sheetData>

--- a/Output/Output Case buy water yo leader and the other process.xlsx
+++ b/Output/Output Case buy water yo leader and the other process.xlsx
@@ -498,13 +498,13 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>12500</v>
+        <v>3545</v>
       </c>
       <c r="C3" t="n">
-        <v>35000</v>
+        <v>26045</v>
       </c>
       <c r="D3" t="n">
-        <v>10000</v>
+        <v>1000</v>
       </c>
       <c r="E3" t="n">
         <v>10000</v>
